--- a/B_TestCase_Database_OnlineShop/B.3_Database_Testcase_OnlineShop/B.3_Database_Testcase_OnlineShop.xlsx
+++ b/B_TestCase_Database_OnlineShop/B.3_Database_Testcase_OnlineShop/B.3_Database_Testcase_OnlineShop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOCTAP\APTECH\TC_Database_OnlineShop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOCTAP\APTECH\PROJECT_ONLINE_SHOP\B_TestCase_Database_OnlineShop\B.3_Database_Testcase_OnlineShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C6FA9-DC99-47BA-9944-5F5254B5232C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037823F2-D2AD-433B-B16E-8D7A9CC49876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02AA9845-6B9C-43F7-97A9-89FBBC929F8B}"/>
   </bookViews>
@@ -2793,21 +2793,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2848,6 +2833,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB03EFE-A365-429D-85FB-436D2248176E}">
   <dimension ref="A1:XFB200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
@@ -19758,37 +19758,37 @@
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:16382">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:16382" ht="63">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="33" t="s">
         <v>247</v>
       </c>
       <c r="G13" s="27"/>
@@ -19798,22 +19798,22 @@
       <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:16382" ht="63">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="33" t="s">
         <v>248</v>
       </c>
       <c r="G14" s="27"/>
@@ -19823,22 +19823,22 @@
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:16382" ht="63">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="33" t="s">
         <v>248</v>
       </c>
       <c r="G15" s="27"/>
@@ -19848,37 +19848,37 @@
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:16382">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" ht="63">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="34" t="s">
         <v>250</v>
       </c>
       <c r="G17" s="27"/>
@@ -19888,22 +19888,22 @@
       <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" ht="63">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="34" t="s">
         <v>335</v>
       </c>
       <c r="G18" s="27"/>
@@ -19913,22 +19913,22 @@
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="63">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="34" t="s">
         <v>338</v>
       </c>
       <c r="G19" s="27"/>
@@ -19938,37 +19938,37 @@
       <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="63">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="34" t="s">
         <v>341</v>
       </c>
       <c r="G21" s="27"/>
@@ -19978,22 +19978,22 @@
       <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="63">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="34" t="s">
         <v>343</v>
       </c>
       <c r="G22" s="27"/>
@@ -20006,49 +20006,49 @@
       <c r="A23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" ht="63">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="33" t="s">
         <v>247</v>
       </c>
       <c r="G25" s="27"/>
@@ -20058,22 +20058,22 @@
       <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9" ht="63">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="33" t="s">
         <v>248</v>
       </c>
       <c r="G26" s="27"/>
@@ -20083,22 +20083,22 @@
       <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" ht="63">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="33" t="s">
         <v>248</v>
       </c>
       <c r="G27" s="27"/>
@@ -20108,37 +20108,37 @@
       <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" ht="63">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="34" t="s">
         <v>266</v>
       </c>
       <c r="G29" s="27"/>
@@ -20148,22 +20148,22 @@
       <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" ht="63">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="27"/>
@@ -20173,37 +20173,37 @@
       <c r="I30" s="27"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" ht="63">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="34" t="s">
         <v>356</v>
       </c>
       <c r="G32" s="27"/>
@@ -20213,22 +20213,22 @@
       <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" ht="63">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="27"/>
@@ -20238,22 +20238,22 @@
       <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9" ht="63">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="34" t="s">
         <v>362</v>
       </c>
       <c r="G34" s="27"/>
@@ -20263,22 +20263,22 @@
       <c r="I34" s="27"/>
     </row>
     <row r="35" spans="1:9" ht="63">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="34" t="s">
         <v>378</v>
       </c>
       <c r="G35" s="27"/>
@@ -20288,37 +20288,37 @@
       <c r="I35" s="27"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
     </row>
     <row r="37" spans="1:9" ht="63">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E37" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="34" t="s">
         <v>356</v>
       </c>
       <c r="G37" s="27"/>
@@ -20328,22 +20328,22 @@
       <c r="I37" s="27"/>
     </row>
     <row r="38" spans="1:9" ht="63">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="27"/>
@@ -20353,22 +20353,22 @@
       <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:9" ht="63">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="34" t="s">
         <v>374</v>
       </c>
       <c r="G39" s="27"/>
@@ -20378,22 +20378,22 @@
       <c r="I39" s="27"/>
     </row>
     <row r="40" spans="1:9" ht="63">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="33" t="s">
         <v>377</v>
       </c>
       <c r="G40" s="27"/>
@@ -20405,37 +20405,37 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
     </row>
     <row r="42" spans="1:9" ht="63">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="34" t="s">
         <v>259</v>
       </c>
       <c r="G42" s="27"/>
@@ -20445,22 +20445,22 @@
       <c r="I42" s="27"/>
     </row>
     <row r="43" spans="1:9" ht="63">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="27"/>
@@ -20476,46 +20476,46 @@
       <c r="B44" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
     </row>
     <row r="46" spans="1:9" ht="63">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F46" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="27"/>
@@ -20525,22 +20525,22 @@
       <c r="I46" s="27"/>
     </row>
     <row r="47" spans="1:9" ht="63">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="33" t="s">
         <v>428</v>
       </c>
       <c r="G47" s="27"/>
@@ -20550,22 +20550,22 @@
       <c r="I47" s="27"/>
     </row>
     <row r="48" spans="1:9" ht="63">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="E48" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F48" s="33" t="s">
         <v>428</v>
       </c>
       <c r="G48" s="27"/>
@@ -20575,37 +20575,37 @@
       <c r="I48" s="27"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
     </row>
     <row r="50" spans="1:9" ht="63">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="F50" s="38" t="s">
+      <c r="F50" s="33" t="s">
         <v>281</v>
       </c>
       <c r="G50" s="27"/>
@@ -20615,22 +20615,22 @@
       <c r="I50" s="27"/>
     </row>
     <row r="51" spans="1:9" ht="63">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="E51" s="38" t="s">
+      <c r="E51" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="F51" s="38" t="s">
+      <c r="F51" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="27"/>
@@ -20640,37 +20640,37 @@
       <c r="I51" s="27"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
     </row>
     <row r="53" spans="1:9" ht="63">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="33" t="s">
         <v>281</v>
       </c>
       <c r="G53" s="27"/>
@@ -20680,22 +20680,22 @@
       <c r="I53" s="27"/>
     </row>
     <row r="54" spans="1:9" ht="63">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="E54" s="38" t="s">
+      <c r="E54" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="F54" s="38" t="s">
+      <c r="F54" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="27"/>
@@ -20705,37 +20705,37 @@
       <c r="I54" s="27"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
     </row>
     <row r="56" spans="1:9" ht="63">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D56" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="F56" s="39" t="s">
+      <c r="F56" s="34" t="s">
         <v>356</v>
       </c>
       <c r="G56" s="27"/>
@@ -20745,22 +20745,22 @@
       <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:9" ht="63">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="F57" s="38" t="s">
+      <c r="F57" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="27"/>
@@ -20770,22 +20770,22 @@
       <c r="I57" s="27"/>
     </row>
     <row r="58" spans="1:9" ht="63">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="F58" s="38" t="s">
+      <c r="F58" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="27"/>
@@ -20795,22 +20795,22 @@
       <c r="I58" s="27"/>
     </row>
     <row r="59" spans="1:9" ht="63">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="E59" s="38" t="s">
+      <c r="E59" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="F59" s="38" t="s">
+      <c r="F59" s="33" t="s">
         <v>30</v>
       </c>
       <c r="G59" s="27"/>
@@ -20820,37 +20820,37 @@
       <c r="I59" s="27"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
     </row>
     <row r="61" spans="1:9" ht="63">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="34" t="s">
         <v>259</v>
       </c>
       <c r="G61" s="27"/>
@@ -20860,22 +20860,22 @@
       <c r="I61" s="27"/>
     </row>
     <row r="62" spans="1:9" ht="63">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="F62" s="38" t="s">
+      <c r="F62" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="27"/>
@@ -20885,37 +20885,37 @@
       <c r="I62" s="27"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
     </row>
     <row r="64" spans="1:9" ht="63">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="E64" s="38" t="s">
+      <c r="E64" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="F64" s="39" t="s">
+      <c r="F64" s="34" t="s">
         <v>356</v>
       </c>
       <c r="G64" s="27"/>
@@ -20925,22 +20925,22 @@
       <c r="I64" s="27"/>
     </row>
     <row r="65" spans="1:9" ht="63">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="D65" s="39" t="s">
+      <c r="D65" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="E65" s="38" t="s">
+      <c r="E65" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="F65" s="38" t="s">
+      <c r="F65" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="27"/>
@@ -20950,22 +20950,22 @@
       <c r="I65" s="27"/>
     </row>
     <row r="66" spans="1:9" ht="63">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="D66" s="39" t="s">
+      <c r="D66" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="F66" s="39" t="s">
+      <c r="F66" s="34" t="s">
         <v>412</v>
       </c>
       <c r="G66" s="27"/>
@@ -20975,22 +20975,22 @@
       <c r="I66" s="27"/>
     </row>
     <row r="67" spans="1:9" ht="63">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="D67" s="39" t="s">
+      <c r="D67" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="F67" s="38" t="s">
+      <c r="F67" s="33" t="s">
         <v>27</v>
       </c>
       <c r="G67" s="27"/>
@@ -21000,37 +21000,37 @@
       <c r="I67" s="27"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
     </row>
     <row r="69" spans="1:9" ht="63">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="D69" s="39" t="s">
+      <c r="D69" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="F69" s="38" t="s">
+      <c r="F69" s="33" t="s">
         <v>45</v>
       </c>
       <c r="G69" s="27" t="s">
@@ -21044,22 +21044,22 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="63">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="34" t="s">
         <v>614</v>
       </c>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="F70" s="38" t="s">
+      <c r="F70" s="33" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="27"/>
@@ -21075,46 +21075,46 @@
       <c r="B71" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
     </row>
     <row r="73" spans="1:9" ht="63">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="34" t="s">
         <v>615</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E73" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="F73" s="38" t="s">
+      <c r="F73" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G73" s="27"/>
@@ -21124,22 +21124,22 @@
       <c r="I73" s="27"/>
     </row>
     <row r="74" spans="1:9" ht="63">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="D74" s="39" t="s">
+      <c r="D74" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="E74" s="38" t="s">
+      <c r="E74" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="F74" s="38" t="s">
+      <c r="F74" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G74" s="27"/>
@@ -21149,22 +21149,22 @@
       <c r="I74" s="27"/>
     </row>
     <row r="75" spans="1:9" ht="63">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D75" s="39" t="s">
+      <c r="D75" s="34" t="s">
         <v>617</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="F75" s="39" t="s">
+      <c r="F75" s="34" t="s">
         <v>425</v>
       </c>
       <c r="G75" s="27"/>
@@ -21174,22 +21174,22 @@
       <c r="I75" s="27"/>
     </row>
     <row r="76" spans="1:9" ht="63">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="D76" s="39" t="s">
+      <c r="D76" s="34" t="s">
         <v>618</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="E76" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="F76" s="38" t="s">
+      <c r="F76" s="33" t="s">
         <v>428</v>
       </c>
       <c r="G76" s="27"/>
@@ -21199,37 +21199,37 @@
       <c r="I76" s="27"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
     </row>
     <row r="78" spans="1:9" ht="63">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="E78" s="38" t="s">
+      <c r="E78" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="F78" s="39" t="s">
+      <c r="F78" s="34" t="s">
         <v>249</v>
       </c>
       <c r="G78" s="27"/>
@@ -21239,22 +21239,22 @@
       <c r="I78" s="27"/>
     </row>
     <row r="79" spans="1:9" ht="63">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="E79" s="38" t="s">
+      <c r="E79" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="F79" s="38" t="s">
+      <c r="F79" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G79" s="27"/>
@@ -21264,37 +21264,37 @@
       <c r="I79" s="27"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
     </row>
     <row r="81" spans="1:9" ht="63">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="D81" s="39" t="s">
+      <c r="D81" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="E81" s="38" t="s">
+      <c r="E81" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="F81" s="39" t="s">
+      <c r="F81" s="34" t="s">
         <v>249</v>
       </c>
       <c r="G81" s="27"/>
@@ -21304,22 +21304,22 @@
       <c r="I81" s="27"/>
     </row>
     <row r="82" spans="1:9" ht="63">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="D82" s="39" t="s">
+      <c r="D82" s="34" t="s">
         <v>622</v>
       </c>
-      <c r="E82" s="38" t="s">
+      <c r="E82" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="F82" s="38" t="s">
+      <c r="F82" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G82" s="27"/>
@@ -21329,40 +21329,40 @@
       <c r="I82" s="27"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="36" t="s">
+      <c r="A83" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="37"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
     </row>
     <row r="84" spans="1:9" ht="63">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="D84" s="39" t="s">
+      <c r="D84" s="34" t="s">
         <v>623</v>
       </c>
-      <c r="E84" s="38" t="s">
+      <c r="E84" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="F84" s="39" t="s">
+      <c r="F84" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="G84" s="47" t="s">
+      <c r="G84" s="42" t="s">
         <v>249</v>
       </c>
       <c r="H84" s="27" t="s">
@@ -21373,22 +21373,22 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="63">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="E85" s="38" t="s">
+      <c r="E85" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="F85" s="38" t="s">
+      <c r="F85" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="27"/>
@@ -21398,22 +21398,22 @@
       <c r="I85" s="27"/>
     </row>
     <row r="86" spans="1:9" ht="63">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="D86" s="39" t="s">
+      <c r="D86" s="34" t="s">
         <v>625</v>
       </c>
-      <c r="E86" s="38" t="s">
+      <c r="E86" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="F86" s="39" t="s">
+      <c r="F86" s="34" t="s">
         <v>438</v>
       </c>
       <c r="G86" s="27"/>
@@ -21423,22 +21423,22 @@
       <c r="I86" s="27"/>
     </row>
     <row r="87" spans="1:9" ht="63">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="C87" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="D87" s="39" t="s">
+      <c r="D87" s="34" t="s">
         <v>626</v>
       </c>
-      <c r="E87" s="38" t="s">
+      <c r="E87" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="F87" s="38" t="s">
+      <c r="F87" s="33" t="s">
         <v>30</v>
       </c>
       <c r="G87" s="27"/>
@@ -21448,37 +21448,37 @@
       <c r="I87" s="27"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="37"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
     </row>
     <row r="89" spans="1:9" ht="63">
-      <c r="A89" s="38" t="s">
+      <c r="A89" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="D89" s="39" t="s">
+      <c r="D89" s="34" t="s">
         <v>627</v>
       </c>
-      <c r="E89" s="38" t="s">
+      <c r="E89" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F89" s="39" t="s">
+      <c r="F89" s="34" t="s">
         <v>259</v>
       </c>
       <c r="G89" s="27"/>
@@ -21488,22 +21488,22 @@
       <c r="I89" s="27"/>
     </row>
     <row r="90" spans="1:9" ht="63">
-      <c r="A90" s="38" t="s">
+      <c r="A90" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="39" t="s">
+      <c r="C90" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="D90" s="39" t="s">
+      <c r="D90" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="E90" s="38" t="s">
+      <c r="E90" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="F90" s="38" t="s">
+      <c r="F90" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G90" s="27"/>
@@ -21513,37 +21513,37 @@
       <c r="I90" s="27"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
     </row>
     <row r="92" spans="1:9" ht="63">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="D92" s="39" t="s">
+      <c r="D92" s="34" t="s">
         <v>629</v>
       </c>
-      <c r="E92" s="38" t="s">
+      <c r="E92" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="F92" s="39" t="s">
+      <c r="F92" s="34" t="s">
         <v>356</v>
       </c>
       <c r="G92" s="27"/>
@@ -21553,22 +21553,22 @@
       <c r="I92" s="27"/>
     </row>
     <row r="93" spans="1:9" ht="63">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="39" t="s">
+      <c r="C93" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="D93" s="39" t="s">
+      <c r="D93" s="34" t="s">
         <v>630</v>
       </c>
-      <c r="E93" s="38" t="s">
+      <c r="E93" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="F93" s="38" t="s">
+      <c r="F93" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G93" s="27"/>
@@ -21578,22 +21578,22 @@
       <c r="I93" s="27"/>
     </row>
     <row r="94" spans="1:9" ht="63">
-      <c r="A94" s="38" t="s">
+      <c r="A94" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="C94" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="39" t="s">
+      <c r="D94" s="34" t="s">
         <v>631</v>
       </c>
-      <c r="E94" s="38" t="s">
+      <c r="E94" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="F94" s="39" t="s">
+      <c r="F94" s="34" t="s">
         <v>445</v>
       </c>
       <c r="G94" s="27"/>
@@ -21603,22 +21603,22 @@
       <c r="I94" s="27"/>
     </row>
     <row r="95" spans="1:9" ht="63">
-      <c r="A95" s="38" t="s">
+      <c r="A95" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="D95" s="39" t="s">
+      <c r="D95" s="34" t="s">
         <v>632</v>
       </c>
-      <c r="E95" s="38" t="s">
+      <c r="E95" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="F95" s="38" t="s">
+      <c r="F95" s="33" t="s">
         <v>27</v>
       </c>
       <c r="G95" s="27"/>
@@ -21628,37 +21628,37 @@
       <c r="I95" s="27"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="36" t="s">
+      <c r="A96" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
     </row>
     <row r="97" spans="1:9" ht="63">
-      <c r="A97" s="38" t="s">
+      <c r="A97" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C97" s="38" t="s">
+      <c r="C97" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="D97" s="39" t="s">
+      <c r="D97" s="34" t="s">
         <v>633</v>
       </c>
-      <c r="E97" s="38" t="s">
+      <c r="E97" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="F97" s="38" t="s">
+      <c r="F97" s="33" t="s">
         <v>45</v>
       </c>
       <c r="G97" s="27" t="s">
@@ -21672,22 +21672,22 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="63">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="D98" s="39" t="s">
+      <c r="D98" s="34" t="s">
         <v>634</v>
       </c>
-      <c r="E98" s="38" t="s">
+      <c r="E98" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="F98" s="38" t="s">
+      <c r="F98" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G98" s="27" t="s">
@@ -21701,22 +21701,22 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="63">
-      <c r="A99" s="38" t="s">
+      <c r="A99" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C99" s="38" t="s">
+      <c r="C99" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="D99" s="39" t="s">
+      <c r="D99" s="34" t="s">
         <v>635</v>
       </c>
-      <c r="E99" s="38" t="s">
+      <c r="E99" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="F99" s="38"/>
+      <c r="F99" s="33"/>
       <c r="G99" s="27"/>
       <c r="H99" s="27" t="s">
         <v>316</v>
@@ -21730,46 +21730,46 @@
       <c r="B100" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="C100" s="37"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="36" t="s">
+      <c r="A101" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="37"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
     </row>
     <row r="102" spans="1:9" ht="63">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="38" t="s">
+      <c r="C102" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="D102" s="39" t="s">
+      <c r="D102" s="34" t="s">
         <v>636</v>
       </c>
-      <c r="E102" s="38" t="s">
+      <c r="E102" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="F102" s="38" t="s">
+      <c r="F102" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G102" s="27"/>
@@ -21779,22 +21779,22 @@
       <c r="I102" s="27"/>
     </row>
     <row r="103" spans="1:9" ht="63">
-      <c r="A103" s="38" t="s">
+      <c r="A103" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C103" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="D103" s="39" t="s">
+      <c r="D103" s="34" t="s">
         <v>637</v>
       </c>
-      <c r="E103" s="38" t="s">
+      <c r="E103" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="F103" s="38" t="s">
+      <c r="F103" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G103" s="27"/>
@@ -21804,22 +21804,22 @@
       <c r="I103" s="27"/>
     </row>
     <row r="104" spans="1:9" ht="63">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D104" s="39" t="s">
+      <c r="D104" s="34" t="s">
         <v>638</v>
       </c>
-      <c r="E104" s="38" t="s">
+      <c r="E104" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="F104" s="39" t="s">
+      <c r="F104" s="34" t="s">
         <v>425</v>
       </c>
       <c r="G104" s="27"/>
@@ -21829,22 +21829,22 @@
       <c r="I104" s="27"/>
     </row>
     <row r="105" spans="1:9" ht="63">
-      <c r="A105" s="38" t="s">
+      <c r="A105" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C105" s="39" t="s">
+      <c r="C105" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="D105" s="39" t="s">
+      <c r="D105" s="34" t="s">
         <v>639</v>
       </c>
-      <c r="E105" s="38" t="s">
+      <c r="E105" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="F105" s="38" t="s">
+      <c r="F105" s="33" t="s">
         <v>248</v>
       </c>
       <c r="G105" s="27"/>
@@ -21854,40 +21854,40 @@
       <c r="I105" s="27"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="36" t="s">
+      <c r="A106" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="37"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
     </row>
     <row r="107" spans="1:9" ht="63">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="B107" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="C107" s="38" t="s">
+      <c r="C107" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="D107" s="39" t="s">
+      <c r="D107" s="34" t="s">
         <v>640</v>
       </c>
-      <c r="E107" s="38" t="s">
+      <c r="E107" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="F107" s="39" t="s">
+      <c r="F107" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="G107" s="47" t="s">
+      <c r="G107" s="42" t="s">
         <v>459</v>
       </c>
       <c r="H107" s="27" t="s">
@@ -21898,22 +21898,22 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="63">
-      <c r="A108" s="38" t="s">
+      <c r="A108" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="39" t="s">
+      <c r="C108" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="D108" s="39" t="s">
+      <c r="D108" s="34" t="s">
         <v>641</v>
       </c>
-      <c r="E108" s="38" t="s">
+      <c r="E108" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="F108" s="38" t="s">
+      <c r="F108" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G108" s="27"/>
@@ -21923,37 +21923,37 @@
       <c r="I108" s="27"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="36" t="s">
+      <c r="A109" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C109" s="37"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
     </row>
     <row r="110" spans="1:9" ht="63">
-      <c r="A110" s="38" t="s">
+      <c r="A110" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="C110" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D110" s="39" t="s">
+      <c r="D110" s="34" t="s">
         <v>642</v>
       </c>
-      <c r="E110" s="38" t="s">
+      <c r="E110" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="F110" s="38" t="s">
+      <c r="F110" s="33" t="s">
         <v>463</v>
       </c>
       <c r="G110" s="27"/>
@@ -21963,22 +21963,22 @@
       <c r="I110" s="27"/>
     </row>
     <row r="111" spans="1:9" ht="63">
-      <c r="A111" s="38" t="s">
+      <c r="A111" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B111" s="38" t="s">
+      <c r="B111" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="39" t="s">
+      <c r="C111" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="D111" s="39" t="s">
+      <c r="D111" s="34" t="s">
         <v>643</v>
       </c>
-      <c r="E111" s="38" t="s">
+      <c r="E111" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="F111" s="38" t="s">
+      <c r="F111" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G111" s="27"/>
@@ -21988,22 +21988,22 @@
       <c r="I111" s="27"/>
     </row>
     <row r="112" spans="1:9" ht="63">
-      <c r="A112" s="38" t="s">
+      <c r="A112" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B112" s="38" t="s">
+      <c r="B112" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C112" s="48" t="s">
+      <c r="C112" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="D112" s="39" t="s">
+      <c r="D112" s="34" t="s">
         <v>644</v>
       </c>
-      <c r="E112" s="38" t="s">
+      <c r="E112" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="F112" s="38" t="s">
+      <c r="F112" s="33" t="s">
         <v>61</v>
       </c>
       <c r="G112" s="27" t="s">
@@ -22017,37 +22017,37 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="36" t="s">
+      <c r="A113" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="37"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
     </row>
     <row r="114" spans="1:9" ht="63">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B114" s="38" t="s">
+      <c r="B114" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C114" s="38" t="s">
+      <c r="C114" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D114" s="39" t="s">
+      <c r="D114" s="34" t="s">
         <v>645</v>
       </c>
-      <c r="E114" s="38" t="s">
+      <c r="E114" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="F114" s="38" t="s">
+      <c r="F114" s="33" t="s">
         <v>64</v>
       </c>
       <c r="G114" s="27" t="s">
@@ -22061,22 +22061,22 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="63">
-      <c r="A115" s="38" t="s">
+      <c r="A115" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="39" t="s">
+      <c r="C115" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="D115" s="39" t="s">
+      <c r="D115" s="34" t="s">
         <v>646</v>
       </c>
-      <c r="E115" s="38" t="s">
+      <c r="E115" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="F115" s="38" t="s">
+      <c r="F115" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G115" s="27"/>
@@ -22086,22 +22086,22 @@
       <c r="I115" s="27"/>
     </row>
     <row r="116" spans="1:9" ht="63">
-      <c r="A116" s="38" t="s">
+      <c r="A116" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C116" s="38" t="s">
+      <c r="C116" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D116" s="39" t="s">
+      <c r="D116" s="34" t="s">
         <v>647</v>
       </c>
-      <c r="E116" s="38" t="s">
+      <c r="E116" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="F116" s="38" t="s">
+      <c r="F116" s="33" t="s">
         <v>65</v>
       </c>
       <c r="G116" s="27" t="s">
@@ -22115,25 +22115,25 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="63">
-      <c r="A117" s="38" t="s">
+      <c r="A117" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B117" s="39" t="s">
+      <c r="B117" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="C117" s="38" t="s">
+      <c r="C117" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D117" s="39" t="s">
+      <c r="D117" s="34" t="s">
         <v>648</v>
       </c>
-      <c r="E117" s="38" t="s">
+      <c r="E117" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="F117" s="38" t="s">
+      <c r="F117" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="G117" s="47" t="s">
+      <c r="G117" s="42" t="s">
         <v>474</v>
       </c>
       <c r="H117" s="27" t="s">
@@ -22144,37 +22144,37 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="36" t="s">
+      <c r="A118" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="37"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
     </row>
     <row r="119" spans="1:9" ht="63">
-      <c r="A119" s="38" t="s">
+      <c r="A119" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B119" s="38" t="s">
+      <c r="B119" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="D119" s="39" t="s">
+      <c r="D119" s="34" t="s">
         <v>649</v>
       </c>
-      <c r="E119" s="38" t="s">
+      <c r="E119" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="F119" s="38" t="s">
+      <c r="F119" s="33" t="s">
         <v>64</v>
       </c>
       <c r="G119" s="27"/>
@@ -22184,22 +22184,22 @@
       <c r="I119" s="27"/>
     </row>
     <row r="120" spans="1:9" ht="63">
-      <c r="A120" s="38" t="s">
+      <c r="A120" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B120" s="38" t="s">
+      <c r="B120" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C120" s="39" t="s">
+      <c r="C120" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="D120" s="39" t="s">
+      <c r="D120" s="34" t="s">
         <v>650</v>
       </c>
-      <c r="E120" s="38" t="s">
+      <c r="E120" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="F120" s="38" t="s">
+      <c r="F120" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G120" s="27"/>
@@ -22209,22 +22209,22 @@
       <c r="I120" s="27"/>
     </row>
     <row r="121" spans="1:9" ht="63">
-      <c r="A121" s="38" t="s">
+      <c r="A121" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B121" s="38" t="s">
+      <c r="B121" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C121" s="38" t="s">
+      <c r="C121" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="D121" s="39" t="s">
+      <c r="D121" s="34" t="s">
         <v>651</v>
       </c>
-      <c r="E121" s="38" t="s">
+      <c r="E121" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="F121" s="38" t="s">
+      <c r="F121" s="33" t="s">
         <v>65</v>
       </c>
       <c r="G121" s="27" t="s">
@@ -22238,25 +22238,25 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="63">
-      <c r="A122" s="38" t="s">
+      <c r="A122" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B122" s="39" t="s">
+      <c r="B122" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="C122" s="38" t="s">
+      <c r="C122" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="D122" s="39" t="s">
+      <c r="D122" s="34" t="s">
         <v>652</v>
       </c>
-      <c r="E122" s="38" t="s">
+      <c r="E122" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="F122" s="38" t="s">
+      <c r="F122" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="G122" s="47" t="s">
+      <c r="G122" s="42" t="s">
         <v>483</v>
       </c>
       <c r="H122" s="27" t="s">
@@ -22267,37 +22267,37 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="36" t="s">
+      <c r="A123" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B123" s="36" t="s">
+      <c r="B123" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C123" s="37"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
     </row>
     <row r="124" spans="1:9" ht="63">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C124" s="38" t="s">
+      <c r="C124" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="D124" s="39" t="s">
+      <c r="D124" s="34" t="s">
         <v>653</v>
       </c>
-      <c r="E124" s="38" t="s">
+      <c r="E124" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="F124" s="38" t="s">
+      <c r="F124" s="33" t="s">
         <v>485</v>
       </c>
       <c r="G124" s="27"/>
@@ -22307,22 +22307,22 @@
       <c r="I124" s="27"/>
     </row>
     <row r="125" spans="1:9" ht="63">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="39" t="s">
+      <c r="C125" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="D125" s="39" t="s">
+      <c r="D125" s="34" t="s">
         <v>654</v>
       </c>
-      <c r="E125" s="38" t="s">
+      <c r="E125" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="F125" s="38" t="s">
+      <c r="F125" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G125" s="27"/>
@@ -22332,22 +22332,22 @@
       <c r="I125" s="27"/>
     </row>
     <row r="126" spans="1:9" ht="78.75">
-      <c r="A126" s="38" t="s">
+      <c r="A126" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B126" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C126" s="39" t="s">
+      <c r="C126" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="D126" s="39" t="s">
+      <c r="D126" s="34" t="s">
         <v>655</v>
       </c>
-      <c r="E126" s="38" t="s">
+      <c r="E126" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="F126" s="39" t="s">
+      <c r="F126" s="34" t="s">
         <v>493</v>
       </c>
       <c r="G126" s="27"/>
@@ -22357,37 +22357,37 @@
       <c r="I126" s="27"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="36" t="s">
+      <c r="A127" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B127" s="36" t="s">
+      <c r="B127" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="C127" s="37"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
     </row>
     <row r="128" spans="1:9" ht="63">
-      <c r="A128" s="38" t="s">
+      <c r="A128" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="D128" s="39" t="s">
+      <c r="D128" s="34" t="s">
         <v>656</v>
       </c>
-      <c r="E128" s="38" t="s">
+      <c r="E128" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="F128" s="38" t="s">
+      <c r="F128" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G128" s="27"/>
@@ -22397,22 +22397,22 @@
       <c r="I128" s="27"/>
     </row>
     <row r="129" spans="1:9" ht="63">
-      <c r="A129" s="38" t="s">
+      <c r="A129" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C129" s="39" t="s">
+      <c r="C129" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="D129" s="39" t="s">
+      <c r="D129" s="34" t="s">
         <v>657</v>
       </c>
-      <c r="E129" s="38" t="s">
+      <c r="E129" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="F129" s="38" t="s">
+      <c r="F129" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G129" s="27"/>
@@ -22422,22 +22422,22 @@
       <c r="I129" s="27"/>
     </row>
     <row r="130" spans="1:9" ht="63">
-      <c r="A130" s="38" t="s">
+      <c r="A130" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="B130" s="38" t="s">
+      <c r="B130" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C130" s="39" t="s">
+      <c r="C130" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="D130" s="39" t="s">
+      <c r="D130" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="E130" s="38" t="s">
+      <c r="E130" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="F130" s="39" t="s">
+      <c r="F130" s="34" t="s">
         <v>492</v>
       </c>
       <c r="G130" s="27"/>
@@ -22447,37 +22447,37 @@
       <c r="I130" s="27"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="36" t="s">
+      <c r="A131" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B131" s="36" t="s">
+      <c r="B131" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="37"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
     </row>
     <row r="132" spans="1:9" ht="63">
-      <c r="A132" s="38" t="s">
+      <c r="A132" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C132" s="38" t="s">
+      <c r="C132" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="D132" s="39" t="s">
+      <c r="D132" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="E132" s="38" t="s">
+      <c r="E132" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F132" s="39" t="s">
+      <c r="F132" s="34" t="s">
         <v>496</v>
       </c>
       <c r="G132" s="27"/>
@@ -22487,22 +22487,22 @@
       <c r="I132" s="27"/>
     </row>
     <row r="133" spans="1:9" ht="63">
-      <c r="A133" s="38" t="s">
+      <c r="A133" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="B133" s="38" t="s">
+      <c r="B133" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C133" s="39" t="s">
+      <c r="C133" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="D133" s="39" t="s">
+      <c r="D133" s="34" t="s">
         <v>660</v>
       </c>
-      <c r="E133" s="38" t="s">
+      <c r="E133" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="F133" s="38" t="s">
+      <c r="F133" s="33" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="27"/>
@@ -22518,46 +22518,46 @@
       <c r="B134" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C134" s="37"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="36" t="s">
+      <c r="A135" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B135" s="36" t="s">
+      <c r="B135" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C135" s="37"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
     </row>
     <row r="136" spans="1:9" ht="63">
-      <c r="A136" s="38" t="s">
+      <c r="A136" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B136" s="38" t="s">
+      <c r="B136" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C136" s="38" t="s">
+      <c r="C136" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="D136" s="39" t="s">
+      <c r="D136" s="34" t="s">
         <v>661</v>
       </c>
-      <c r="E136" s="38" t="s">
+      <c r="E136" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="F136" s="38" t="s">
+      <c r="F136" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G136" s="27"/>
@@ -22567,22 +22567,22 @@
       <c r="I136" s="27"/>
     </row>
     <row r="137" spans="1:9" ht="63">
-      <c r="A137" s="38" t="s">
+      <c r="A137" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="B137" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="39" t="s">
+      <c r="C137" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="D137" s="39" t="s">
+      <c r="D137" s="34" t="s">
         <v>662</v>
       </c>
-      <c r="E137" s="38" t="s">
+      <c r="E137" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="F137" s="38" t="s">
+      <c r="F137" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G137" s="27"/>
@@ -22592,22 +22592,22 @@
       <c r="I137" s="27"/>
     </row>
     <row r="138" spans="1:9" ht="63">
-      <c r="A138" s="38" t="s">
+      <c r="A138" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="B138" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C138" s="38" t="s">
+      <c r="C138" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D138" s="39" t="s">
+      <c r="D138" s="34" t="s">
         <v>663</v>
       </c>
-      <c r="E138" s="38" t="s">
+      <c r="E138" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="F138" s="38" t="s">
+      <c r="F138" s="33" t="s">
         <v>248</v>
       </c>
       <c r="G138" s="27"/>
@@ -22617,22 +22617,22 @@
       <c r="I138" s="27"/>
     </row>
     <row r="139" spans="1:9" ht="63">
-      <c r="A139" s="38" t="s">
+      <c r="A139" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="B139" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C139" s="39" t="s">
+      <c r="C139" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="D139" s="39" t="s">
+      <c r="D139" s="34" t="s">
         <v>665</v>
       </c>
-      <c r="E139" s="38" t="s">
+      <c r="E139" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="F139" s="38" t="s">
+      <c r="F139" s="33" t="s">
         <v>248</v>
       </c>
       <c r="G139" s="27"/>
@@ -22642,37 +22642,37 @@
       <c r="I139" s="27"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="36" t="s">
+      <c r="A140" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B140" s="36" t="s">
+      <c r="B140" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C140" s="37"/>
-      <c r="D140" s="44"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
     </row>
     <row r="141" spans="1:9" ht="63">
-      <c r="A141" s="38" t="s">
+      <c r="A141" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C141" s="38" t="s">
+      <c r="C141" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="D141" s="39" t="s">
+      <c r="D141" s="34" t="s">
         <v>664</v>
       </c>
-      <c r="E141" s="38" t="s">
+      <c r="E141" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="F141" s="38" t="s">
+      <c r="F141" s="33" t="s">
         <v>503</v>
       </c>
       <c r="G141" s="27"/>
@@ -22682,22 +22682,22 @@
       <c r="I141" s="27"/>
     </row>
     <row r="142" spans="1:9" ht="63">
-      <c r="A142" s="38" t="s">
+      <c r="A142" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="39" t="s">
+      <c r="C142" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="D142" s="39" t="s">
+      <c r="D142" s="34" t="s">
         <v>666</v>
       </c>
-      <c r="E142" s="38" t="s">
+      <c r="E142" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="F142" s="38" t="s">
+      <c r="F142" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G142" s="27"/>
@@ -22707,22 +22707,22 @@
       <c r="I142" s="27"/>
     </row>
     <row r="143" spans="1:9" ht="63">
-      <c r="A143" s="38" t="s">
+      <c r="A143" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="B143" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C143" s="38" t="s">
+      <c r="C143" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="D143" s="39" t="s">
+      <c r="D143" s="34" t="s">
         <v>667</v>
       </c>
-      <c r="E143" s="38" t="s">
+      <c r="E143" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="F143" s="38" t="s">
+      <c r="F143" s="33" t="s">
         <v>79</v>
       </c>
       <c r="G143" s="27"/>
@@ -22734,22 +22734,22 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="63">
-      <c r="A144" s="38" t="s">
+      <c r="A144" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B144" s="39" t="s">
+      <c r="B144" s="34" t="s">
         <v>513</v>
       </c>
-      <c r="C144" s="39" t="s">
+      <c r="C144" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="D144" s="39" t="s">
+      <c r="D144" s="34" t="s">
         <v>668</v>
       </c>
-      <c r="E144" s="38" t="s">
+      <c r="E144" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="F144" s="38" t="s">
+      <c r="F144" s="33" t="s">
         <v>513</v>
       </c>
       <c r="G144" s="27"/>
@@ -22761,37 +22761,37 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="36" t="s">
+      <c r="A145" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B145" s="36" t="s">
+      <c r="B145" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C145" s="37"/>
-      <c r="D145" s="44"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
     </row>
     <row r="146" spans="1:9" ht="63">
-      <c r="A146" s="38" t="s">
+      <c r="A146" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B146" s="38" t="s">
+      <c r="B146" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C146" s="38" t="s">
+      <c r="C146" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="D146" s="39" t="s">
+      <c r="D146" s="34" t="s">
         <v>669</v>
       </c>
-      <c r="E146" s="38" t="s">
+      <c r="E146" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="F146" s="38" t="s">
+      <c r="F146" s="33" t="s">
         <v>509</v>
       </c>
       <c r="G146" s="27"/>
@@ -22801,22 +22801,22 @@
       <c r="I146" s="27"/>
     </row>
     <row r="147" spans="1:9" ht="63">
-      <c r="A147" s="38" t="s">
+      <c r="A147" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="B147" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C147" s="39" t="s">
+      <c r="C147" s="34" t="s">
         <v>602</v>
       </c>
-      <c r="D147" s="39" t="s">
+      <c r="D147" s="34" t="s">
         <v>670</v>
       </c>
-      <c r="E147" s="38" t="s">
+      <c r="E147" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="F147" s="38" t="s">
+      <c r="F147" s="33" t="s">
         <v>18</v>
       </c>
       <c r="G147" s="27"/>
@@ -22826,7 +22826,7 @@
       <c r="I147" s="27"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="34" t="s">
+      <c r="A148" s="48" t="s">
         <v>82</v>
       </c>
       <c r="B148" s="29" t="s">
@@ -22836,38 +22836,38 @@
       <c r="D148" s="29"/>
       <c r="E148" s="29"/>
       <c r="F148" s="29"/>
-      <c r="G148" s="40"/>
-      <c r="H148" s="40"/>
-      <c r="I148" s="40"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="35"/>
     </row>
     <row r="149" spans="1:9" ht="6" customHeight="1">
-      <c r="A149" s="35"/>
+      <c r="A149" s="49"/>
       <c r="B149" s="30"/>
       <c r="C149" s="30"/>
       <c r="D149" s="30"/>
       <c r="E149" s="30"/>
       <c r="F149" s="30"/>
-      <c r="G149" s="41"/>
-      <c r="H149" s="41"/>
-      <c r="I149" s="41"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="36"/>
     </row>
     <row r="150" spans="1:9" ht="63">
-      <c r="A150" s="38" t="s">
+      <c r="A150" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B150" s="38" t="s">
+      <c r="B150" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C150" s="38" t="s">
+      <c r="C150" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="D150" s="39" t="s">
+      <c r="D150" s="34" t="s">
         <v>671</v>
       </c>
-      <c r="E150" s="38" t="s">
+      <c r="E150" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="F150" s="38" t="s">
+      <c r="F150" s="33" t="s">
         <v>269</v>
       </c>
       <c r="G150" s="27"/>
@@ -22877,22 +22877,22 @@
       <c r="I150" s="27"/>
     </row>
     <row r="151" spans="1:9" ht="63">
-      <c r="A151" s="38" t="s">
+      <c r="A151" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="B151" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C151" s="39" t="s">
+      <c r="C151" s="34" t="s">
         <v>603</v>
       </c>
-      <c r="D151" s="39" t="s">
+      <c r="D151" s="34" t="s">
         <v>672</v>
       </c>
-      <c r="E151" s="38" t="s">
+      <c r="E151" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="F151" s="38" t="s">
+      <c r="F151" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G151" s="27"/>
@@ -22902,25 +22902,25 @@
       <c r="I151" s="27"/>
     </row>
     <row r="152" spans="1:9" ht="63">
-      <c r="A152" s="38" t="s">
+      <c r="A152" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C152" s="38" t="s">
+      <c r="C152" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="D152" s="39" t="s">
+      <c r="D152" s="34" t="s">
         <v>673</v>
       </c>
-      <c r="E152" s="38" t="s">
+      <c r="E152" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="F152" s="38" t="s">
+      <c r="F152" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G152" s="47" t="s">
+      <c r="G152" s="42" t="s">
         <v>519</v>
       </c>
       <c r="H152" s="27" t="s">
@@ -22931,22 +22931,22 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="94.5">
-      <c r="A153" s="38" t="s">
+      <c r="A153" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C153" s="39" t="s">
+      <c r="C153" s="34" t="s">
         <v>600</v>
       </c>
-      <c r="D153" s="39" t="s">
+      <c r="D153" s="34" t="s">
         <v>674</v>
       </c>
-      <c r="E153" s="38" t="s">
+      <c r="E153" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="F153" s="39" t="s">
+      <c r="F153" s="34" t="s">
         <v>522</v>
       </c>
       <c r="G153" s="27"/>
@@ -22956,37 +22956,37 @@
       <c r="I153" s="27"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="36" t="s">
+      <c r="A154" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B154" s="36" t="s">
+      <c r="B154" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="37"/>
-      <c r="D154" s="44"/>
-      <c r="E154" s="37"/>
-      <c r="F154" s="37"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32"/>
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
     </row>
     <row r="155" spans="1:9" ht="63">
-      <c r="A155" s="38" t="s">
+      <c r="A155" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B155" s="38" t="s">
+      <c r="B155" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C155" s="38" t="s">
+      <c r="C155" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="D155" s="39" t="s">
+      <c r="D155" s="34" t="s">
         <v>675</v>
       </c>
-      <c r="E155" s="38" t="s">
+      <c r="E155" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="F155" s="39" t="s">
+      <c r="F155" s="34" t="s">
         <v>496</v>
       </c>
       <c r="G155" s="27"/>
@@ -22996,22 +22996,22 @@
       <c r="I155" s="27"/>
     </row>
     <row r="156" spans="1:9" ht="63">
-      <c r="A156" s="38" t="s">
+      <c r="A156" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B156" s="38" t="s">
+      <c r="B156" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C156" s="39" t="s">
+      <c r="C156" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="D156" s="39" t="s">
+      <c r="D156" s="34" t="s">
         <v>676</v>
       </c>
-      <c r="E156" s="38" t="s">
+      <c r="E156" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="F156" s="38" t="s">
+      <c r="F156" s="33" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="27"/>
@@ -23021,37 +23021,37 @@
       <c r="I156" s="27"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="36" t="s">
+      <c r="A157" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B157" s="36" t="s">
+      <c r="B157" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C157" s="37"/>
-      <c r="D157" s="44"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
     </row>
     <row r="158" spans="1:9" ht="63">
-      <c r="A158" s="38" t="s">
+      <c r="A158" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="B158" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C158" s="38" t="s">
+      <c r="C158" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="D158" s="39" t="s">
+      <c r="D158" s="34" t="s">
         <v>677</v>
       </c>
-      <c r="E158" s="38" t="s">
+      <c r="E158" s="33" t="s">
         <v>525</v>
       </c>
-      <c r="F158" s="38" t="s">
+      <c r="F158" s="33" t="s">
         <v>279</v>
       </c>
       <c r="G158" s="27"/>
@@ -23061,22 +23061,22 @@
       <c r="I158" s="27"/>
     </row>
     <row r="159" spans="1:9" ht="63">
-      <c r="A159" s="38" t="s">
+      <c r="A159" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="B159" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C159" s="39" t="s">
+      <c r="C159" s="34" t="s">
         <v>604</v>
       </c>
-      <c r="D159" s="39" t="s">
+      <c r="D159" s="34" t="s">
         <v>678</v>
       </c>
-      <c r="E159" s="38" t="s">
+      <c r="E159" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="F159" s="38" t="s">
+      <c r="F159" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G159" s="27" t="s">
@@ -23090,37 +23090,37 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="36" t="s">
+      <c r="A160" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B160" s="36" t="s">
+      <c r="B160" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C160" s="37"/>
-      <c r="D160" s="44"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32"/>
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
     </row>
     <row r="161" spans="1:9" ht="63">
-      <c r="A161" s="38" t="s">
+      <c r="A161" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B161" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C161" s="38" t="s">
+      <c r="C161" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="D161" s="39" t="s">
+      <c r="D161" s="34" t="s">
         <v>679</v>
       </c>
-      <c r="E161" s="38" t="s">
+      <c r="E161" s="33" t="s">
         <v>528</v>
       </c>
-      <c r="F161" s="38" t="s">
+      <c r="F161" s="33" t="s">
         <v>281</v>
       </c>
       <c r="G161" s="27"/>
@@ -23130,22 +23130,22 @@
       <c r="I161" s="27"/>
     </row>
     <row r="162" spans="1:9" ht="63">
-      <c r="A162" s="38" t="s">
+      <c r="A162" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C162" s="39" t="s">
+      <c r="C162" s="34" t="s">
         <v>605</v>
       </c>
-      <c r="D162" s="39" t="s">
+      <c r="D162" s="34" t="s">
         <v>680</v>
       </c>
-      <c r="E162" s="38" t="s">
+      <c r="E162" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="F162" s="38" t="s">
+      <c r="F162" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G162" s="27" t="s">
@@ -23159,37 +23159,37 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="36" t="s">
+      <c r="A163" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B163" s="36" t="s">
+      <c r="B163" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C163" s="37"/>
-      <c r="D163" s="44"/>
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32"/>
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
     </row>
     <row r="164" spans="1:9" ht="63">
-      <c r="A164" s="38" t="s">
+      <c r="A164" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="C164" s="38" t="s">
+      <c r="C164" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="D164" s="39" t="s">
+      <c r="D164" s="34" t="s">
         <v>683</v>
       </c>
-      <c r="E164" s="38" t="s">
+      <c r="E164" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="F164" s="38" t="s">
+      <c r="F164" s="33" t="s">
         <v>290</v>
       </c>
       <c r="G164" s="27"/>
@@ -23199,22 +23199,22 @@
       <c r="I164" s="27"/>
     </row>
     <row r="165" spans="1:9" ht="63">
-      <c r="A165" s="38" t="s">
+      <c r="A165" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C165" s="39" t="s">
+      <c r="C165" s="34" t="s">
         <v>605</v>
       </c>
-      <c r="D165" s="39" t="s">
+      <c r="D165" s="34" t="s">
         <v>682</v>
       </c>
-      <c r="E165" s="38" t="s">
+      <c r="E165" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="F165" s="38" t="s">
+      <c r="F165" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G165" s="27"/>
@@ -23224,22 +23224,22 @@
       <c r="I165" s="27"/>
     </row>
     <row r="166" spans="1:9" ht="63">
-      <c r="A166" s="38" t="s">
+      <c r="A166" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B166" s="38" t="s">
+      <c r="B166" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C166" s="39" t="s">
+      <c r="C166" s="34" t="s">
         <v>594</v>
       </c>
-      <c r="D166" s="39" t="s">
+      <c r="D166" s="34" t="s">
         <v>684</v>
       </c>
-      <c r="E166" s="38" t="s">
+      <c r="E166" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="F166" s="38" t="s">
+      <c r="F166" s="33" t="s">
         <v>93</v>
       </c>
       <c r="G166" s="27"/>
@@ -23251,56 +23251,56 @@
       </c>
     </row>
     <row r="167" spans="1:9" ht="110.25">
-      <c r="A167" s="38" t="s">
+      <c r="A167" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="B167" s="39" t="s">
+      <c r="B167" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C167" s="39" t="s">
+      <c r="C167" s="34" t="s">
         <v>599</v>
       </c>
-      <c r="D167" s="39" t="s">
+      <c r="D167" s="34" t="s">
         <v>685</v>
       </c>
-      <c r="E167" s="38"/>
-      <c r="F167" s="38"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="36" t="s">
+      <c r="A168" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B168" s="36" t="s">
+      <c r="B168" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C168" s="37"/>
-      <c r="D168" s="44"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="37"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
     </row>
     <row r="169" spans="1:9" ht="63">
-      <c r="A169" s="38" t="s">
+      <c r="A169" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="B169" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C169" s="38" t="s">
+      <c r="C169" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="D169" s="39" t="s">
+      <c r="D169" s="34" t="s">
         <v>686</v>
       </c>
-      <c r="E169" s="38" t="s">
+      <c r="E169" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="F169" s="38" t="s">
+      <c r="F169" s="33" t="s">
         <v>291</v>
       </c>
       <c r="G169" s="27" t="s">
@@ -23314,22 +23314,22 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="63">
-      <c r="A170" s="38" t="s">
+      <c r="A170" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="B170" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C170" s="39" t="s">
+      <c r="C170" s="34" t="s">
         <v>606</v>
       </c>
-      <c r="D170" s="39" t="s">
+      <c r="D170" s="34" t="s">
         <v>681</v>
       </c>
-      <c r="E170" s="38" t="s">
+      <c r="E170" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="F170" s="38" t="s">
+      <c r="F170" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G170" s="27" t="s">
@@ -23343,22 +23343,22 @@
       </c>
     </row>
     <row r="171" spans="1:9" ht="63">
-      <c r="A171" s="38" t="s">
+      <c r="A171" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C171" s="39" t="s">
+      <c r="C171" s="34" t="s">
         <v>592</v>
       </c>
-      <c r="D171" s="39" t="s">
+      <c r="D171" s="34" t="s">
         <v>687</v>
       </c>
-      <c r="E171" s="38" t="s">
+      <c r="E171" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="F171" s="39" t="s">
+      <c r="F171" s="34" t="s">
         <v>550</v>
       </c>
       <c r="G171" s="27"/>
@@ -23368,37 +23368,37 @@
       <c r="I171" s="27"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="36" t="s">
+      <c r="A172" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B172" s="36" t="s">
+      <c r="B172" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C172" s="37"/>
-      <c r="D172" s="44"/>
-      <c r="E172" s="37"/>
-      <c r="F172" s="37"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
     </row>
     <row r="173" spans="1:9" ht="63">
-      <c r="A173" s="38" t="s">
+      <c r="A173" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C173" s="38" t="s">
+      <c r="C173" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="D173" s="39" t="s">
+      <c r="D173" s="34" t="s">
         <v>688</v>
       </c>
-      <c r="E173" s="38" t="s">
+      <c r="E173" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="F173" s="39" t="s">
+      <c r="F173" s="34" t="s">
         <v>553</v>
       </c>
       <c r="G173" s="27" t="s">
@@ -23412,22 +23412,22 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="63">
-      <c r="A174" s="38" t="s">
+      <c r="A174" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C174" s="39" t="s">
+      <c r="C174" s="34" t="s">
         <v>607</v>
       </c>
-      <c r="D174" s="39" t="s">
+      <c r="D174" s="34" t="s">
         <v>689</v>
       </c>
-      <c r="E174" s="38" t="s">
+      <c r="E174" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="F174" s="38" t="s">
+      <c r="F174" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G174" s="27"/>
@@ -23437,22 +23437,22 @@
       <c r="I174" s="27"/>
     </row>
     <row r="175" spans="1:9" ht="63">
-      <c r="A175" s="38" t="s">
+      <c r="A175" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="B175" s="38" t="s">
+      <c r="B175" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C175" s="39" t="s">
+      <c r="C175" s="34" t="s">
         <v>591</v>
       </c>
-      <c r="D175" s="39" t="s">
+      <c r="D175" s="34" t="s">
         <v>690</v>
       </c>
-      <c r="E175" s="38" t="s">
+      <c r="E175" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="F175" s="39" t="s">
+      <c r="F175" s="34" t="s">
         <v>558</v>
       </c>
       <c r="G175" s="27"/>
@@ -23468,46 +23468,46 @@
       <c r="B176" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C176" s="37"/>
-      <c r="D176" s="44"/>
-      <c r="E176" s="37"/>
-      <c r="F176" s="37"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="36" t="s">
+      <c r="A177" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B177" s="36" t="s">
+      <c r="B177" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C177" s="37"/>
-      <c r="D177" s="44"/>
-      <c r="E177" s="37"/>
-      <c r="F177" s="37"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
     </row>
     <row r="178" spans="1:9" ht="63">
-      <c r="A178" s="38" t="s">
+      <c r="A178" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="B178" s="42" t="s">
+      <c r="B178" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C178" s="38" t="s">
+      <c r="C178" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="D178" s="39" t="s">
+      <c r="D178" s="34" t="s">
         <v>691</v>
       </c>
-      <c r="E178" s="38" t="s">
+      <c r="E178" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="F178" s="39" t="s">
+      <c r="F178" s="34" t="s">
         <v>559</v>
       </c>
       <c r="G178" s="27"/>
@@ -23517,37 +23517,37 @@
       <c r="I178" s="27"/>
     </row>
     <row r="179" spans="1:9" s="2" customFormat="1">
-      <c r="A179" s="36" t="s">
+      <c r="A179" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B179" s="36" t="s">
+      <c r="B179" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C179" s="43"/>
-      <c r="D179" s="44"/>
-      <c r="E179" s="37"/>
-      <c r="F179" s="43"/>
-      <c r="G179" s="49"/>
-      <c r="H179" s="49"/>
-      <c r="I179" s="49"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="38"/>
+      <c r="G179" s="44"/>
+      <c r="H179" s="44"/>
+      <c r="I179" s="44"/>
     </row>
     <row r="180" spans="1:9" ht="63">
-      <c r="A180" s="38" t="s">
+      <c r="A180" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C180" s="38" t="s">
+      <c r="C180" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="D180" s="39" t="s">
+      <c r="D180" s="34" t="s">
         <v>692</v>
       </c>
-      <c r="E180" s="38" t="s">
+      <c r="E180" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="F180" s="38" t="s">
+      <c r="F180" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G180" s="27"/>
@@ -23557,22 +23557,22 @@
       <c r="I180" s="27"/>
     </row>
     <row r="181" spans="1:9" ht="63">
-      <c r="A181" s="38" t="s">
+      <c r="A181" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B181" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C181" s="39" t="s">
+      <c r="C181" s="34" t="s">
         <v>608</v>
       </c>
-      <c r="D181" s="39" t="s">
+      <c r="D181" s="34" t="s">
         <v>693</v>
       </c>
-      <c r="E181" s="38" t="s">
+      <c r="E181" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="F181" s="38" t="s">
+      <c r="F181" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G181" s="27"/>
@@ -23582,22 +23582,22 @@
       <c r="I181" s="27"/>
     </row>
     <row r="182" spans="1:9" ht="63">
-      <c r="A182" s="38" t="s">
+      <c r="A182" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B182" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C182" s="38" t="s">
+      <c r="C182" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="D182" s="39" t="s">
+      <c r="D182" s="34" t="s">
         <v>694</v>
       </c>
-      <c r="E182" s="38" t="s">
+      <c r="E182" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="F182" s="38" t="s">
+      <c r="F182" s="33" t="s">
         <v>564</v>
       </c>
       <c r="G182" s="27"/>
@@ -23607,37 +23607,37 @@
       <c r="I182" s="27"/>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="36" t="s">
+      <c r="A183" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B183" s="36" t="s">
+      <c r="B183" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C183" s="37"/>
-      <c r="D183" s="44"/>
-      <c r="E183" s="37"/>
-      <c r="F183" s="37"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="39"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
     </row>
     <row r="184" spans="1:9" ht="63">
-      <c r="A184" s="38" t="s">
+      <c r="A184" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C184" s="38" t="s">
+      <c r="C184" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="D184" s="39" t="s">
+      <c r="D184" s="34" t="s">
         <v>695</v>
       </c>
-      <c r="E184" s="38" t="s">
+      <c r="E184" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="F184" s="38" t="s">
+      <c r="F184" s="33" t="s">
         <v>22</v>
       </c>
       <c r="G184" s="27"/>
@@ -23647,22 +23647,22 @@
       <c r="I184" s="27"/>
     </row>
     <row r="185" spans="1:9" ht="63">
-      <c r="A185" s="38" t="s">
+      <c r="A185" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C185" s="39" t="s">
+      <c r="C185" s="34" t="s">
         <v>610</v>
       </c>
-      <c r="D185" s="39" t="s">
+      <c r="D185" s="34" t="s">
         <v>696</v>
       </c>
-      <c r="E185" s="38" t="s">
+      <c r="E185" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="F185" s="38" t="s">
+      <c r="F185" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G185" s="27"/>
@@ -23672,22 +23672,22 @@
       <c r="I185" s="27"/>
     </row>
     <row r="186" spans="1:9" ht="63">
-      <c r="A186" s="38" t="s">
+      <c r="A186" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C186" s="38" t="s">
+      <c r="C186" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="D186" s="39" t="s">
+      <c r="D186" s="34" t="s">
         <v>698</v>
       </c>
-      <c r="E186" s="38" t="s">
+      <c r="E186" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="F186" s="38" t="s">
+      <c r="F186" s="33" t="s">
         <v>565</v>
       </c>
       <c r="G186" s="27"/>
@@ -23697,37 +23697,37 @@
       <c r="I186" s="27"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="36" t="s">
+      <c r="A187" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B187" s="36" t="s">
+      <c r="B187" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C187" s="37"/>
-      <c r="D187" s="44"/>
-      <c r="E187" s="37"/>
-      <c r="F187" s="37"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="32"/>
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
     </row>
     <row r="188" spans="1:9" ht="63">
-      <c r="A188" s="38" t="s">
+      <c r="A188" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="B188" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C188" s="38" t="s">
+      <c r="C188" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D188" s="39" t="s">
+      <c r="D188" s="34" t="s">
         <v>697</v>
       </c>
-      <c r="E188" s="38" t="s">
+      <c r="E188" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="F188" s="38" t="s">
+      <c r="F188" s="33" t="s">
         <v>569</v>
       </c>
       <c r="G188" s="27"/>
@@ -23737,22 +23737,22 @@
       <c r="I188" s="27"/>
     </row>
     <row r="189" spans="1:9" ht="63">
-      <c r="A189" s="38" t="s">
+      <c r="A189" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C189" s="39" t="s">
+      <c r="C189" s="34" t="s">
         <v>613</v>
       </c>
-      <c r="D189" s="39" t="s">
+      <c r="D189" s="34" t="s">
         <v>699</v>
       </c>
-      <c r="E189" s="38" t="s">
+      <c r="E189" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="F189" s="38" t="s">
+      <c r="F189" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G189" s="27"/>
@@ -23762,22 +23762,22 @@
       <c r="I189" s="27"/>
     </row>
     <row r="190" spans="1:9" ht="63">
-      <c r="A190" s="38" t="s">
+      <c r="A190" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="C190" s="39" t="s">
+      <c r="C190" s="34" t="s">
         <v>589</v>
       </c>
-      <c r="D190" s="39" t="s">
+      <c r="D190" s="34" t="s">
         <v>700</v>
       </c>
-      <c r="E190" s="38" t="s">
+      <c r="E190" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="F190" s="38" t="s">
+      <c r="F190" s="33" t="s">
         <v>573</v>
       </c>
       <c r="G190" s="27"/>
@@ -23789,37 +23789,37 @@
       </c>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="36" t="s">
+      <c r="A191" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="B191" s="36" t="s">
+      <c r="B191" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C191" s="37"/>
-      <c r="D191" s="44"/>
-      <c r="E191" s="37"/>
-      <c r="F191" s="37"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="39"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="32"/>
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
     </row>
     <row r="192" spans="1:9" ht="63">
-      <c r="A192" s="38" t="s">
+      <c r="A192" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="B192" s="38" t="s">
+      <c r="B192" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C192" s="38" t="s">
+      <c r="C192" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D192" s="39" t="s">
+      <c r="D192" s="34" t="s">
         <v>701</v>
       </c>
-      <c r="E192" s="38" t="s">
+      <c r="E192" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="F192" s="38" t="s">
+      <c r="F192" s="33" t="s">
         <v>107</v>
       </c>
       <c r="G192" s="27"/>
@@ -23831,22 +23831,22 @@
       </c>
     </row>
     <row r="193" spans="1:9" ht="63">
-      <c r="A193" s="38" t="s">
+      <c r="A193" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="B193" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C193" s="39" t="s">
+      <c r="C193" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="D193" s="39" t="s">
+      <c r="D193" s="34" t="s">
         <v>702</v>
       </c>
-      <c r="E193" s="38" t="s">
+      <c r="E193" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="F193" s="38" t="s">
+      <c r="F193" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G193" s="27"/>
@@ -23856,22 +23856,22 @@
       <c r="I193" s="27"/>
     </row>
     <row r="194" spans="1:9" ht="63">
-      <c r="A194" s="38" t="s">
+      <c r="A194" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="C194" s="39" t="s">
+      <c r="C194" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="D194" s="39" t="s">
+      <c r="D194" s="34" t="s">
         <v>703</v>
       </c>
-      <c r="E194" s="38" t="s">
+      <c r="E194" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="F194" s="38" t="s">
+      <c r="F194" s="33" t="s">
         <v>578</v>
       </c>
       <c r="G194" s="27"/>
@@ -23883,37 +23883,37 @@
       </c>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="36" t="s">
+      <c r="A195" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B195" s="36" t="s">
+      <c r="B195" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C195" s="37"/>
-      <c r="D195" s="44"/>
-      <c r="E195" s="37"/>
-      <c r="F195" s="37"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="39"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="32"/>
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
     </row>
     <row r="196" spans="1:9" ht="63">
-      <c r="A196" s="38" t="s">
+      <c r="A196" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C196" s="38" t="s">
+      <c r="C196" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D196" s="39" t="s">
+      <c r="D196" s="34" t="s">
         <v>704</v>
       </c>
-      <c r="E196" s="38" t="s">
+      <c r="E196" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="F196" s="38" t="s">
+      <c r="F196" s="33" t="s">
         <v>582</v>
       </c>
       <c r="G196" s="27"/>
@@ -23923,22 +23923,22 @@
       <c r="I196" s="27"/>
     </row>
     <row r="197" spans="1:9" ht="63">
-      <c r="A197" s="38" t="s">
+      <c r="A197" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C197" s="39" t="s">
+      <c r="C197" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="D197" s="39" t="s">
+      <c r="D197" s="34" t="s">
         <v>705</v>
       </c>
-      <c r="E197" s="38" t="s">
+      <c r="E197" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="F197" s="38" t="s">
+      <c r="F197" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G197" s="27"/>
@@ -23948,22 +23948,22 @@
       <c r="I197" s="27"/>
     </row>
     <row r="198" spans="1:9" ht="110.25">
-      <c r="A198" s="38" t="s">
+      <c r="A198" s="33" t="s">
         <v>547</v>
       </c>
-      <c r="B198" s="39" t="s">
+      <c r="B198" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="C198" s="39" t="s">
+      <c r="C198" s="34" t="s">
         <v>587</v>
       </c>
-      <c r="D198" s="39" t="s">
+      <c r="D198" s="34" t="s">
         <v>706</v>
       </c>
-      <c r="E198" s="38" t="s">
+      <c r="E198" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="F198" s="38" t="s">
+      <c r="F198" s="33" t="s">
         <v>584</v>
       </c>
       <c r="G198" s="27"/>
